--- a/Material/ResNet/Tentativa 2/Métricas.xlsx
+++ b/Material/ResNet/Tentativa 2/Métricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\Tentativa 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53C075-DA91-409C-AEB3-85BCEE63008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56268B6-5580-4A06-90DE-4FB2DF82107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.93508500772797531</v>
+        <v>0.97681607418856264</v>
       </c>
       <c r="C2" s="2">
-        <v>0.33870967741935482</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="D2" s="2">
-        <v>0.95454545454545459</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E2" s="2">
-        <v>0.5</v>
+        <v>0.61538461538461531</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -462,16 +462,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.98608964451313752</v>
+        <v>0.98145285935085003</v>
       </c>
       <c r="C3" s="2">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.36363636363636359</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4705882352941177</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -479,16 +479,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.93044822256568782</v>
+        <v>0.96136012364760437</v>
       </c>
       <c r="C4" s="2">
-        <v>0.99136442141623493</v>
+        <v>0.97423510466988728</v>
       </c>
       <c r="D4" s="2">
-        <v>0.93485342019543971</v>
+        <v>0.98534201954397393</v>
       </c>
       <c r="E4" s="2">
-        <v>0.96227996647108127</v>
+        <v>0.97975708502024283</v>
       </c>
     </row>
   </sheetData>

--- a/Material/ResNet/Tentativa 2/Métricas.xlsx
+++ b/Material/ResNet/Tentativa 2/Métricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\ResNet\Tentativa 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56268B6-5580-4A06-90DE-4FB2DF82107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6CA1CC-64BF-4220-B444-C9E651874962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,6 +66,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +415,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,16 +446,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97681607418856264</v>
+        <v>0.97990726429675423</v>
       </c>
       <c r="C2" s="2">
-        <v>0.54545454545454541</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D2" s="2">
-        <v>0.70588235294117652</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E2" s="2">
-        <v>0.61538461538461531</v>
+        <v>0.62857142857142867</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -462,16 +463,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.98145285935085003</v>
+        <v>0.97681607418856264</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -479,16 +480,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.96136012364760437</v>
+        <v>0.95672333848531688</v>
       </c>
       <c r="C4" s="2">
-        <v>0.97423510466988728</v>
+        <v>0.96656050955414008</v>
       </c>
       <c r="D4" s="2">
-        <v>0.98534201954397393</v>
+        <v>0.98859934853420195</v>
       </c>
       <c r="E4" s="2">
-        <v>0.97975708502024283</v>
+        <v>0.97745571658615127</v>
       </c>
     </row>
   </sheetData>
